--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>Неизвестный сверху</t>
+  </si>
+  <si>
+    <t>Известный сверху</t>
+  </si>
+  <si>
+    <t>J_неизв/J_изв</t>
+  </si>
+  <si>
+    <t>w_1 рад/с</t>
+  </si>
+  <si>
+    <t>w_2 рад/с</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,11 +69,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +90,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +130,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +170,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +352,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>63.761851843279103</v>
+      </c>
+      <c r="C4">
+        <v>16.4999463136168</v>
+      </c>
+      <c r="D4">
+        <f>(B4-C4)/C4</f>
+        <v>2.864367230738126</v>
+      </c>
+      <c r="F4">
+        <v>-43.368870000000001</v>
+      </c>
+      <c r="G4">
+        <v>-30.96613</v>
+      </c>
+      <c r="H4">
+        <f>G4/(F4-G4)</f>
+        <v>2.4967168545015048</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>28.403892408788</v>
+      </c>
+      <c r="C5">
+        <v>3.57682758961628</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="0">(B5-C5)/C5</f>
+        <v>6.9410851367972013</v>
+      </c>
+      <c r="F5">
+        <v>-45.761470000000003</v>
+      </c>
+      <c r="G5">
+        <v>-32.865960000000001</v>
+      </c>
+      <c r="H5">
+        <f>G5/(F5-G5)</f>
+        <v>2.5486359205645992</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>38.767685293728199</v>
+      </c>
+      <c r="C6">
+        <v>9.5047868434607494</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.0787537829320382</v>
+      </c>
+      <c r="F6">
+        <v>-41.158110000000001</v>
+      </c>
+      <c r="G6">
+        <v>-29.59038</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H5:H10" si="1">G6/(F6-G6)</f>
+        <v>2.5580109494256864</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>39.891218579818002</v>
+      </c>
+      <c r="C7">
+        <v>10.521385536418499</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.7914415778928916</v>
+      </c>
+      <c r="F7">
+        <v>-43.49371</v>
+      </c>
+      <c r="G7">
+        <v>-31.087610000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.505832614600882</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>-43.298450000000003</v>
+      </c>
+      <c r="C9">
+        <v>-10.50699</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1209185504126302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>-45.838720000000002</v>
+      </c>
+      <c r="C10">
+        <v>-12.92229</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5472598123088095</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>-45.739759999999997</v>
+      </c>
+      <c r="C11">
+        <v>-12.13241</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.7700473360198012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>-61.075270000000003</v>
+      </c>
+      <c r="C12">
+        <v>-16.791530000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.63726652663575</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Неизвестный сверху</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>w_2 рад/с</t>
+  </si>
+  <si>
+    <t>погрешность через ст. отклонение</t>
   </si>
 </sst>
 </file>
@@ -352,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -368,7 +371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -388,7 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>63.761851843279103</v>
       </c>
@@ -410,7 +413,7 @@
         <v>2.4967168545015048</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>28.403892408788</v>
       </c>
@@ -432,7 +435,7 @@
         <v>2.5486359205645992</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>38.767685293728199</v>
       </c>
@@ -450,11 +453,11 @@
         <v>-29.59038</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H5:H10" si="1">G6/(F6-G6)</f>
+        <f t="shared" ref="H6:H7" si="1">G6/(F6-G6)</f>
         <v>2.5580109494256864</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>39.891218579818002</v>
       </c>
@@ -476,7 +479,7 @@
         <v>2.505832614600882</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>-43.298450000000003</v>
       </c>
@@ -487,8 +490,11 @@
         <f t="shared" si="0"/>
         <v>3.1209185504126302</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>-45.838720000000002</v>
       </c>
@@ -499,8 +505,12 @@
         <f t="shared" si="0"/>
         <v>2.5472598123088095</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f>1.95*SQRT(DEVSQ(H4:H7)/12)</f>
+        <v>2.9757799402324706E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>-45.739759999999997</v>
       </c>
@@ -512,7 +522,7 @@
         <v>2.7700473360198012</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>-61.075270000000003</v>
       </c>
